--- a/dataset-roti-kaya.xlsx
+++ b/dataset-roti-kaya.xlsx
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="6">
   <si>
     <t>Tanggal</t>
-  </si>
-  <si>
-    <t>Nama RotiPRM</t>
   </si>
   <si>
     <t>PRS</t>
@@ -39,6 +36,12 @@
   </si>
   <si>
     <t>Roti Kaya</t>
+  </si>
+  <si>
+    <t>PRM</t>
+  </si>
+  <si>
+    <t>Nama Roti</t>
   </si>
 </sst>
 </file>
@@ -360,7 +363,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -373,13 +376,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -387,7 +393,7 @@
         <v>42371</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C2">
         <v>1415</v>
@@ -404,7 +410,7 @@
         <v>42373</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>1145</v>
@@ -421,7 +427,7 @@
         <v>42374</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1264</v>
@@ -438,7 +444,7 @@
         <v>42375</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1295</v>
@@ -455,7 +461,7 @@
         <v>42376</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1324</v>
@@ -472,7 +478,7 @@
         <v>42377</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
         <v>1589</v>
@@ -489,7 +495,7 @@
         <v>42378</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1279</v>
@@ -506,7 +512,7 @@
         <v>42380</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C9">
         <v>1239</v>
@@ -523,7 +529,7 @@
         <v>42381</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10">
         <v>1398</v>
@@ -540,7 +546,7 @@
         <v>42382</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>1090</v>
@@ -557,7 +563,7 @@
         <v>42383</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>1064</v>
@@ -574,7 +580,7 @@
         <v>42384</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>1384</v>
@@ -591,7 +597,7 @@
         <v>42385</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>1315</v>
@@ -608,7 +614,7 @@
         <v>42387</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C15">
         <v>1355</v>
@@ -625,7 +631,7 @@
         <v>42388</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>1156</v>
@@ -642,7 +648,7 @@
         <v>42389</v>
       </c>
       <c r="B17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17">
         <v>1241</v>
@@ -659,7 +665,7 @@
         <v>42390</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <v>1570</v>
@@ -676,7 +682,7 @@
         <v>42391</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C19">
         <v>1297</v>
@@ -693,7 +699,7 @@
         <v>42392</v>
       </c>
       <c r="B20" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>1366</v>
@@ -710,7 +716,7 @@
         <v>42394</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C21">
         <v>1185</v>
@@ -727,7 +733,7 @@
         <v>42395</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C22">
         <v>1089</v>
@@ -744,7 +750,7 @@
         <v>42396</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C23">
         <v>1519</v>
@@ -761,7 +767,7 @@
         <v>42397</v>
       </c>
       <c r="B24" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C24">
         <v>1030</v>
@@ -778,7 +784,7 @@
         <v>42398</v>
       </c>
       <c r="B25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25">
         <v>1376</v>
@@ -795,7 +801,7 @@
         <v>42399</v>
       </c>
       <c r="B26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C26">
         <v>1555</v>
@@ -809,6 +815,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
+      <c r="C27" t="e">
+        <f>av</f>
+        <v>#NAME?</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
